--- a/custom_image/flask_server/static/data/영수증_양식_파일_가로.xlsx
+++ b/custom_image/flask_server/static/data/영수증_양식_파일_가로.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhkim/PythonProjects/myProject/houseAccounting/custom_image/flask_server/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDA006-2AE2-A74E-8A2A-99BACB8E6167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610C2133-AFD1-524D-B614-7A0A1117E199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42700" yWindow="1040" windowWidth="29900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4. 법카-영수증 제출양식(평일)" sheetId="1" r:id="rId1"/>
@@ -566,22 +566,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,11 +599,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,30 +634,6 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,19 +939,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="15" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="1.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.83203125" style="15" bestFit="1" customWidth="1"/>
@@ -960,16 +961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -990,14 +991,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1031,11 +1032,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1061,15 +1062,15 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1133,9 +1134,9 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1163,9 +1164,9 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1190,10 +1191,10 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A8" s="33"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="34"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
@@ -1218,10 +1219,10 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
@@ -1246,10 +1247,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
@@ -1274,10 +1275,10 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="1"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -1302,10 +1303,10 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
@@ -1330,10 +1331,10 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="1"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
@@ -1358,10 +1359,10 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="1"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -1388,10 +1389,10 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="1"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
@@ -1416,10 +1417,10 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="1"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -1444,10 +1445,10 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="1"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
@@ -1472,10 +1473,10 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="1"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -1500,10 +1501,10 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="1"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -1528,10 +1529,10 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="37"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="1"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
@@ -1587,15 +1588,15 @@
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="10"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -29022,6 +29023,6 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>